--- a/FinalProjectGitHub.xlsx
+++ b/FinalProjectGitHub.xlsx
@@ -1,54 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\Desktop\CureMD Bootcamp Assignments\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4850\Desktop\FP_GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A791BED5-01C6-479E-99EC-A720D4A50924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9CCFD-C7B6-48DA-865D-CEE4955A8955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="1" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="welcome" sheetId="1" r:id="rId1"/>
     <sheet name="flowcharts(4)" sheetId="2" r:id="rId2"/>
+    <sheet name="TestGroups" sheetId="3" r:id="rId3"/>
+    <sheet name="variables" sheetId="4" r:id="rId4"/>
+    <sheet name="equivalence classes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>GitHub provides a wide range of features and functionalities to facilitate software development, including version control, collaboration tools, code review capabilities, issue tracking, project management, continuous integration and deployment, and more. It is widely used by developers and teams to work on open-source projects, private projects, and to contribute to various repositories hosted by other developers and organizations.
-On the GitHub website, users can create and manage repositories, contribute to existing projects through pull requests, report issues and bugs, review code changes, and collaborate with other developers through discussions and comments. The platform also allows users to host static websites through GitHub Pages and provides various integrations with third-party tools and services.</t>
-  </si>
-  <si>
-    <t>Main Features</t>
-  </si>
-  <si>
-    <t>Sr No.</t>
-  </si>
-  <si>
-    <t>Version Control</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>PULL REQUEST Feature</t>
   </si>
@@ -60,13 +41,333 @@
   </si>
   <si>
     <t>Security Scanning</t>
+  </si>
+  <si>
+    <t>Pull request</t>
+  </si>
+  <si>
+    <t>1,2,4,6</t>
+  </si>
+  <si>
+    <t>start&gt;open github account&gt;permission to fork repostory?(No)&gt; Request for permission?(No)&gt; end</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9,10,11,12,13,14,16,17,19</t>
+  </si>
+  <si>
+    <t>start&gt;open github account&gt;permission to fork repostory?(Yes)&gt;create  a fork &gt;clones forked repository&gt; creates new branch&gt; make changes&gt; commit changes &gt; push the chnages&gt; create a pull request&gt;  select base and compare branch&gt; review changes? (No)&gt; request modification &gt;  changes approved?(No)&gt;End</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9,10,11,12,13,14,16,17,18,20,21</t>
+  </si>
+  <si>
+    <t>start&gt;open github account&gt;permission to fork repostory?(Yes)&gt;create  a fork &gt;clones forked repository&gt; creates new branch&gt; make changes&gt; commit changes &gt; push the chnages&gt; create a pull request&gt;  select base and compare branch&gt; review changes? (No)&gt; request modification &gt;  changes approved?(yes)&gt;merge pull request&gt;End</t>
+  </si>
+  <si>
+    <t>1,2,3,7,8,9,10,11,12,13,14,15,20,21</t>
+  </si>
+  <si>
+    <t>start&gt;open github account&gt;permission to fork repostory?(Yes)&gt;create  a fork &gt;clones forked repository&gt; creates new branch&gt; make changes&gt; commit changes &gt; push the chnages&gt; create a pull request&gt;  select base and compare branch&gt; review changes? (yes) &gt; merge pull request&gt;End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Action </t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,12,13</t>
+  </si>
+  <si>
+    <t>start&gt; create workflow&gt; define workflow triggers&gt; configures job and execution&gt; setup environment and dependencies&gt;run workflows&gt; execute job and dependencies&gt;action  successful?(yes)&gt;review workflow output&gt; make changes and rerun&gt;end</t>
+  </si>
+  <si>
+    <t>start&gt; create workflow&gt; define workflow triggers&gt; configures job and execution&gt; setup environment and dependencies&gt;run workflows&gt; execute job and dependencies&gt;action  successful?(no)&gt;encounter errors&gt;handle errors&gt;repeat 5, 6 ,7?(yes)&gt;review workflow outputs&gt; merge changes&gt;end</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,9,10,11,5,6,7,8,12,13</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,10,12,13,14,15,18</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,16,17,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start&gt;open GitHub account&gt; access repository&gt; setup Github Action and configure workflows&gt; provide necessary permissions &gt; security scanning trigger&gt; start scan &gt; code analysis by system &gt; dependancy scanning &gt; Security Alerts and findings &gt; Report security findings&gt; Notification and Remediation&gt; neglect notification? (No)&gt;  remediation and solve security issues&gt; issue successfully addressed ? (yes) &gt; closing security issues &gt; end </t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,14,15</t>
+  </si>
+  <si>
+    <t>start&gt;open GitHub account&gt; access repository&gt; setup Github Action and configure workflows&gt; provide necessary permissions &gt; security scanning trigger&gt; start scan &gt; code analysis by system &gt; dependancy scanning &gt; Security Alerts and findings &gt; Report security findings&gt; Notification and Remediation&gt; neglect notification? (yes)&gt; security vulnerability remain unresolved &gt; end</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,16,18,16,17,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start&gt;open GitHub account&gt; access repository&gt; setup Github Action and configure workflows&gt; provide necessary permissions &gt; security scanning trigger&gt; start scan &gt; code analysis by system &gt; dependancy scanning &gt; Security Alerts and findings &gt; Report security findings&gt; Notification and Remediation&gt; neglect notification? (No)&gt;  remediation and solve security issues&gt; issue successfully addressed ? (no) &gt; remediation and solve security issues&gt;  issue successfully addressed? (yes)&gt; closing security issues &gt;end </t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>start&gt; open github account&gt;issue creation permission? (no)&gt; end</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,11</t>
+  </si>
+  <si>
+    <t>start&gt; open github account&gt;issue creation permission? (yes)&gt; create issue&gt; issue title and description&gt; assignees and label &gt; submit isssue&gt; issue created notification &gt; review issue details ?(not valid)&gt; end</t>
+  </si>
+  <si>
+    <t>start&gt; open github account&gt;issue creation permission? (yes)&gt; create issue&gt; issue title and description&gt; assignees and label &gt; submit isssue&gt; issue created notification &gt; review issue details ?(valid)&gt; issue assignment&gt; starts working on issue &gt; issue progress update&gt; issue resolved? (Yes) &gt; close issue &gt; end</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,8,9,10,12,13,14,16,17,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start&gt; open github account&gt;issue creation permission? (yes)&gt; create issue&gt; issue title and description&gt; assignees and label &gt; submit isssue&gt; issue created notification &gt; review issue details ?(valid)&gt; issue assignment&gt; starts working on issue &gt; issue progress update&gt; issue resolved? (no)&gt;remains open and may require further discussions&gt; close issue &gt; end </t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> variables</t>
+  </si>
+  <si>
+    <t>Pull Request Feature Variables</t>
+  </si>
+  <si>
+    <t>GitHub Action Feature</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>workflow_file_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workflow file </t>
+  </si>
+  <si>
+    <t>The user will edit this file to define jobs, actions, triggers, and other configurations.</t>
+  </si>
+  <si>
+    <t>The name of the YAML file created by the user inside the .github/workflows/ directory of the repository to define the actions and workflows to be executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workflow output and log </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user will review the generated outputs, artifacts, test reports, and logs to monitor the success or failure of the workflows and debug any issues.</t>
+  </si>
+  <si>
+    <t>GitHub Repository URL</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Commit Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull request Title </t>
+  </si>
+  <si>
+    <t>Pull request description</t>
+  </si>
+  <si>
+    <t>Pull request Discussion</t>
+  </si>
+  <si>
+    <t>Merge decission</t>
+  </si>
+  <si>
+    <t>Issue Tracking Feature</t>
+  </si>
+  <si>
+    <t>Issue title</t>
+  </si>
+  <si>
+    <t>Issue description</t>
+  </si>
+  <si>
+    <t>Assignees</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>The user selects assignees from the project contributors who will be responsible for addressing the issue.</t>
+  </si>
+  <si>
+    <t>The user adds labels to categorize the issue (e.g., bug, enhancement, feature request, etc.).</t>
+  </si>
+  <si>
+    <t>The contributors and maintainers interact through comments to provide updates, discuss solutions, and clarify requirements for resolving the issue.</t>
+  </si>
+  <si>
+    <t>Comments and Discussions</t>
+  </si>
+  <si>
+    <t>The user provides a concise title for the issue</t>
+  </si>
+  <si>
+    <t>The user provides a detailed description of the issue, including steps to reproduce a bug or detailed explanations of feature requests.</t>
+  </si>
+  <si>
+    <t>The user interacts with the GitHub web interface to access the original repository and create a fork.</t>
+  </si>
+  <si>
+    <t>The user interacts with Git to create a new branch and commit changes to it.</t>
+  </si>
+  <si>
+    <t>The user provides a meaningful commit message while making changes and committing them.</t>
+  </si>
+  <si>
+    <t>The user provides a title and description while creating the pull request to describe the purpose of their changes.</t>
+  </si>
+  <si>
+    <t>The user engages in discussions with maintainers and reviewers regarding the changes proposed in the pull request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The maintainers review the pull request and decide whether to merge it into the main codebase.</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Issue comments</t>
+  </si>
+  <si>
+    <t>Issue status</t>
+  </si>
+  <si>
+    <t>The user (maintainers and contributors) interacts with notifications received from the GitHub system to become aware of security findings</t>
+  </si>
+  <si>
+    <t>Maintainers and contributors interact with pull requests to propose and merge code changes for resolving the security issues.</t>
+  </si>
+  <si>
+    <t>The user interacts with issue comments to discuss and update the status of security issues.</t>
+  </si>
+  <si>
+    <t>The user interacts with the GitHub web interface to close security-related issues once they have been resolved.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name: Abdullah Mir
+office code: 4850
+Final Project: GitHub Features
+4 major feature: GitHub Action, Pull request, Issue tracking and Security Scanning
+Short description of Application:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GitHub provides a wide range of features and functionalities to facilitate software development, including version control, collaboration tools, code review capabilities, issue tracking, project management, continuous integration and deployment, and more. It is widely used by developers and teams to work on open-source projects, private projects, and to contribute to various repositories hosted by other developers and organizations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid </t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Github repository URL</t>
+  </si>
+  <si>
+    <t>{username} is the GitHub username or organization name that owns the repository.</t>
+  </si>
+  <si>
+    <t>{repository-name} is the name of the repository.</t>
+  </si>
+  <si>
+    <t>SSH URL Format:   git@github.com:username/repo.git</t>
+  </si>
+  <si>
+    <t>HTTPS URL format: https://github.com/username/repository-name</t>
+  </si>
+  <si>
+    <t>available on all url regardless of visibility</t>
+  </si>
+  <si>
+    <t>https:// clone URLs work even behind a firewall or proxy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url is case sensitive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy paste the url </t>
+  </si>
+  <si>
+    <t>Written in lowecase</t>
+  </si>
+  <si>
+    <t>special characters /,-, _ , : , .</t>
+  </si>
+  <si>
+    <t>username consist of string, alphanumeric</t>
+  </si>
+  <si>
+    <t>HTTPS URL format: https://github.com/repository-name/username</t>
+  </si>
+  <si>
+    <t>SSH URL Format:   git@github.com:repo.git/username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,15 +383,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +441,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -192,62 +542,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,9 +1265,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6CDE-CA5B-4C6B-A7C3-2F58D7931899}">
-  <dimension ref="B1:Q9"/>
+  <dimension ref="C1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -779,78 +1276,49 @@
     <col min="3" max="3" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="2:17" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+    </row>
+    <row r="3" spans="3:17" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -863,97 +1331,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A61F9D-8432-47F8-AB57-7E54DF4027C3}">
-  <dimension ref="B1:AO2"/>
+  <dimension ref="B1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="M1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="13"/>
-      <c r="X1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AH1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="27"/>
+      <c r="X1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="27"/>
+      <c r="AH1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
     </row>
     <row r="2" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="16"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="30"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -966,4 +1439,663 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CA26C-9AAF-459C-BEAC-886BA283842C}">
+  <dimension ref="B2:C26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="104.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="2:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="2:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="2:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7956EF65-C3A0-4078-BD91-08F4B2866B00}">
+  <dimension ref="B1:D37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="5.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="13" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="22" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="32" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB4F74-DF50-4B7D-8E77-024B5DB26560}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="70" style="32" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="35"/>
+      <c r="B4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="35"/>
+      <c r="B5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="33"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
+      <c r="B6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="33"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="33"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="33"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="33"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="33"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalProjectGitHub.xlsx
+++ b/FinalProjectGitHub.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4850\Desktop\FP_GH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\Desktop\CureMD Bootcamp Assignments\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9CCFD-C7B6-48DA-865D-CEE4955A8955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4454E-15F5-4D5C-8459-452477FD21E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="1" r:id="rId1"/>
     <sheet name="flowcharts(4)" sheetId="2" r:id="rId2"/>
-    <sheet name="TestGroups" sheetId="3" r:id="rId3"/>
-    <sheet name="variables" sheetId="4" r:id="rId4"/>
-    <sheet name="equivalence classes" sheetId="5" r:id="rId5"/>
+    <sheet name="TestGroups(4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Test point" sheetId="7" r:id="rId4"/>
+    <sheet name="variables(4)" sheetId="4" r:id="rId5"/>
+    <sheet name="equivalence classes" sheetId="5" r:id="rId6"/>
+    <sheet name="BV" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
   <si>
     <t>PULL REQUEST Feature</t>
   </si>
@@ -181,15 +192,9 @@
     <t xml:space="preserve">Pull request Title </t>
   </si>
   <si>
-    <t>Pull request description</t>
-  </si>
-  <si>
     <t>Pull request Discussion</t>
   </si>
   <si>
-    <t>Merge decission</t>
-  </si>
-  <si>
     <t>Issue Tracking Feature</t>
   </si>
   <si>
@@ -236,9 +241,6 @@
   </si>
   <si>
     <t>The user engages in discussions with maintainers and reviewers regarding the changes proposed in the pull request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The maintainers review the pull request and decide whether to merge it into the main codebase.</t>
   </si>
   <si>
     <t>Notifications</t>
@@ -362,12 +364,359 @@
   <si>
     <t>SSH URL Format:   git@github.com:repo.git/username</t>
   </si>
+  <si>
+    <t>branch name</t>
+  </si>
+  <si>
+    <t>commit message</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>feature/add-new-feature
+fix/bug-123
+hotfix/security-issue</t>
+  </si>
+  <si>
+    <t>main (main branch usually not used in pull requests)
+feature branch with spaces (branch names should not have spaces)
+feature#123 (branch names should not contain special characters)</t>
+  </si>
+  <si>
+    <t>"1234567" (commit messages should be descriptive)
+"Update" (commit messages should be more specific)
+Empty commit message (commit messages should not be empty)</t>
+  </si>
+  <si>
+    <t>"Add authentication functionality"
+"Fix typo in README.md"
+"Implement new API endpoint"</t>
+  </si>
+  <si>
+    <t>"Feature: Add user profile page"
+"Bug Fix: Resolve login issue"
+"Docs: Update README with installation guide"</t>
+  </si>
+  <si>
+    <t>"PR123" (pull request titles should be descriptive)
+"Fix" (pull request titles should be more specific)
+Empty title (pull request titles should not be empty)</t>
+  </si>
+  <si>
+    <t>https://github.com/exampleuser/my-repository
+https://github.com/openai/gpt-3
+https://github.com/username/project-name
+https://github.com/teamA/project-x
+https://github.com/organization/repo-name</t>
+  </si>
+  <si>
+    <t>https://github.com/ (missing repository name)
+http://github.com/exampleuser/my-repo (wrong protocol)
+github.com/exampleuser/my-repository (missing "https://" protocol)
+https://bitbucket.org/username/project-name (not a GitHub repository URL)
+https://github.com/example user/my-repository (invalid space in the URL)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Valid Constraints</t>
+  </si>
+  <si>
+    <t>Invalid Constraints</t>
+  </si>
+  <si>
+    <t>- Filename length should not exceed 255 characters.</t>
+  </si>
+  <si>
+    <t>- Filename contains spaces or special characters other than hyphens, underscores, and dots.</t>
+  </si>
+  <si>
+    <t>- Filename can contain alphanumeric characters.</t>
+  </si>
+  <si>
+    <t>- Filename starts or ends with hyphens, underscores, or dots.</t>
+  </si>
+  <si>
+    <t>- Filename can contain hyphens and underscores.</t>
+  </si>
+  <si>
+    <t>- Filename is empty (null or an empty string).</t>
+  </si>
+  <si>
+    <t>- Filename can contain dots to indicate file extensions.</t>
+  </si>
+  <si>
+    <t>- Filename contains invalid characters or escape sequences.</t>
+  </si>
+  <si>
+    <t>- Filename can be in any supported file naming convention.</t>
+  </si>
+  <si>
+    <t>- Filename length exceeds the maximum allowed length (e.g., more than 255 characters).</t>
+  </si>
+  <si>
+    <t>- Filename can contain uppercase and lowercase characters.</t>
+  </si>
+  <si>
+    <t>- Filename contains leading or trailing whitespaces.</t>
+  </si>
+  <si>
+    <t>- Filename can contain numbers and special characters.</t>
+  </si>
+  <si>
+    <t>- Filename contains non-printable or control characters.</t>
+  </si>
+  <si>
+    <t>- Filename contains consecutive dots (e.g., "file..txt").</t>
+  </si>
+  <si>
+    <t>- Filename contains reserved keywords or prohibited patterns.</t>
+  </si>
+  <si>
+    <t>- Filename contains invalid file path separators (e.g., /, ).</t>
+  </si>
+  <si>
+    <t>- Filename is case-sensitive in the repository's OS.</t>
+  </si>
+  <si>
+    <t>workflow file</t>
+  </si>
+  <si>
+    <t>- The file should be a valid YAML file format.</t>
+  </si>
+  <si>
+    <t>- The file is empty or null.</t>
+  </si>
+  <si>
+    <t>- The file contains syntax errors or is not a valid YAML file.</t>
+  </si>
+  <si>
+    <t>- The file references non-existing jobs or actions.</t>
+  </si>
+  <si>
+    <t>- The file should have a valid structure and indentation.</t>
+  </si>
+  <si>
+    <t>- The file exceeds the maximum allowed file size.</t>
+  </si>
+  <si>
+    <t>- The file can contain comments and whitespace.</t>
+  </si>
+  <si>
+    <t>- The file is in an unsupported file format (e.g., not YAML).</t>
+  </si>
+  <si>
+    <t>- The file should not contain prohibited configurations.</t>
+  </si>
+  <si>
+    <t>- The file references private or sensitive information (e.g., secrets).</t>
+  </si>
+  <si>
+    <t>- The file should be placed in the correct directory.</t>
+  </si>
+  <si>
+    <t>- The file contains insecure or unsafe configurations (e.g., eval).</t>
+  </si>
+  <si>
+    <t>- The file should use valid GitHub Actions syntax.</t>
+  </si>
+  <si>
+    <t>- The file includes non-YAML constructs (e.g., JSON, shell commands).</t>
+  </si>
+  <si>
+    <t>the file should define jobs, actions, triggers, and other configurations using correct YAML syntax.</t>
+  </si>
+  <si>
+    <t>The file should specify valid virtual environments (e.g., "ubuntu-latest") for the jobs.</t>
+  </si>
+  <si>
+    <t>The file should use valid trigger events (e.g., "on: [push]") to initiate the workflow.</t>
+  </si>
+  <si>
+    <t>The workflow should generate relevant and informative outputs, artifacts, test reports, and logs.</t>
+  </si>
+  <si>
+    <t>The generated logs should contain meaningful and actionable messages for monitoring and debugging.</t>
+  </si>
+  <si>
+    <t>Logs should be well-formatted and structured for ease of understanding.</t>
+  </si>
+  <si>
+    <t>The workflow outputs and logs should be securely stored and accessible to authorized users.</t>
+  </si>
+  <si>
+    <t>The workflow generates irrelevant or uninformative outputs and logs.</t>
+  </si>
+  <si>
+    <t>Logs provide incomplete or misleading information, making debugging difficult.</t>
+  </si>
+  <si>
+    <t>Logs contain sensitive or private information, exposing unauthorized data.</t>
+  </si>
+  <si>
+    <t>The workflow does not generate any outputs, logs, or artifacts, hindering analysis.</t>
+  </si>
+  <si>
+    <t>Logs are excessively verbose or cluttered, making it hard to identify critical information.</t>
+  </si>
+  <si>
+    <t>workflow output and log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull Request Feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github Action Feature </t>
+  </si>
+  <si>
+    <t>The branch name can contain lowercase and uppercase letters (alphanumeric characters).</t>
+  </si>
+  <si>
+    <t>The branch name can include hyphens and underscores to separate words.</t>
+  </si>
+  <si>
+    <t>The branch name can have a descriptive format indicating the purpose or feature being worked on.</t>
+  </si>
+  <si>
+    <t>The branch name should be human-readable and meaningful to team members.</t>
+  </si>
+  <si>
+    <t>The branch name can be relatively short and concise while still conveying the intended purpose.</t>
+  </si>
+  <si>
+    <t>The branch name contains special characters other than hyphens and underscores.</t>
+  </si>
+  <si>
+    <t>The branch name includes symbols, such as @, #, $, etc., which are not supported by Git.</t>
+  </si>
+  <si>
+    <t>The branch name includes non-printable or control characters.</t>
+  </si>
+  <si>
+    <t>The branch name is too long, exceeding the maximum allowed length for branch names.</t>
+  </si>
+  <si>
+    <t>The branch name is cryptic or not easily understandable to team members.</t>
+  </si>
+  <si>
+    <t>The branch name includes reserved words or keywords that may conflict with Git or the repository's settings.</t>
+  </si>
+  <si>
+    <t>The branch name is identical to or conflicts with an existing branch name in the repository.</t>
+  </si>
+  <si>
+    <t>The branch name is formatted using invalid characters, such as slashes, colons, or semicolons.</t>
+  </si>
+  <si>
+    <t>The commit message should be written in English or a language commonly used in the project.</t>
+  </si>
+  <si>
+    <t>The commit message can include alphabets, numbers, and common special characters like periods, commas, hyphens, and underscores.</t>
+  </si>
+  <si>
+    <t>The commit message should be a non-empty string with at least one character.</t>
+  </si>
+  <si>
+    <t>The commit message can include a reference to associated issues or pull requests for better traceability.</t>
+  </si>
+  <si>
+    <t>pull request feature</t>
+  </si>
+  <si>
+    <t>test groups</t>
+  </si>
+  <si>
+    <t>test scenarios</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>Verify that the user can successfully create a fork of the original repository on their GitHub account.</t>
+  </si>
+  <si>
+    <t>Verify that the user can clone the forked repository to their local machine.</t>
+  </si>
+  <si>
+    <t>Verify that the user can create a new branch in the forked repository.</t>
+  </si>
+  <si>
+    <t>Verify that the user can make changes to the code in the new branch.</t>
+  </si>
+  <si>
+    <t>Verify that the user can create a pull request from the new branch to the original repository.</t>
+  </si>
+  <si>
+    <t>Verify that the maintainers or reviewers can review the changes made in the pull request.</t>
+  </si>
+  <si>
+    <t>Verify that the maintainers can approve the pull request and merge the changes into the main codebase.</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>Verify that the user attempts to fork the original repository but does not have permission.</t>
+  </si>
+  <si>
+    <t>Verify that the user receives an appropriate notification or error message indicating that they do not have permission to fork the repository.</t>
+  </si>
+  <si>
+    <t>Verify that the user decides not to request permission for forking the repository and the process ends without any further actions related to forking or pull requests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceptance </t>
+  </si>
+  <si>
+    <t>Verify that the user can successfully create a fork of the original repository on their GitHub account, enabling them to contribute to the project.</t>
+  </si>
+  <si>
+    <t>Ensure that the user can make changes to the code, create a new branch, and commit those changes with meaningful descriptions to maintain a clear commit history.</t>
+  </si>
+  <si>
+    <t>Validate that the user can create a pull request from the new branch to the original repository, allowing their changes to be reviewed and potentially merged.</t>
+  </si>
+  <si>
+    <t>Confirm that the maintainers or reviewers can efficiently review the changes made in the pull request and provide feedback or request modifications if necessary.</t>
+  </si>
+  <si>
+    <t>Ensure that the user can respond to modification requests from maintainers promptly, making necessary changes to meet project standards.</t>
+  </si>
+  <si>
+    <t>Verify that the pull request is successfully merged into the main codebase after receiving approval from the maintainers, incorporating the user's contributions into the project.</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>Ensure the user can access the "Clone or Download" button and access the clone URL of the forked repository.</t>
+  </si>
+  <si>
+    <t>Verify the user's ability to create a new branch using the GitHub interface, providing a suitable name for the branch.</t>
+  </si>
+  <si>
+    <t>Confirm the changes made by the user are properly reflected in the "Changes" tab, with clear indications of added, modified, and deleted files.</t>
+  </si>
+  <si>
+    <t>Validate the user can enter a meaningful commit message and commit the changes with the "Commit changes" button.</t>
+  </si>
+  <si>
+    <t>Ensure the "Push" button is visible and clickable after the user commits changes, allowing them to push the new branch to the forked repository.</t>
+  </si>
+  <si>
+    <t>Verify the user can navigate to the "New Pull Request" button on the forked repository page.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,8 +776,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,8 +836,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -613,6 +1008,21 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -623,129 +1033,318 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,7 +1867,7 @@
   <dimension ref="C1:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1877,7 @@
   <sheetData>
     <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C1" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1333,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A61F9D-8432-47F8-AB57-7E54DF4027C3}">
   <dimension ref="B1:AO24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
@@ -1445,146 +2044,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CA26C-9AAF-459C-BEAC-886BA283842C}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="104.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="104.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="2:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="C11" s="33"/>
+    </row>
+    <row r="12" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="2:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="2:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="37"/>
+    </row>
+    <row r="24" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1601,501 +2200,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7956EF65-C3A0-4078-BD91-08F4B2866B00}">
-  <dimension ref="B1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AD83B3-B512-4161-91DF-38FEFA7FAA3E}">
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="5.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="4" max="4" width="99.7109375" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="59"/>
+    </row>
+    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="59"/>
+    </row>
+    <row r="24" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C29" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7956EF65-C3A0-4078-BD91-08F4B2866B00}">
+  <dimension ref="B1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="5.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="6" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="C14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D32" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <v>2</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D34" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="13" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="22" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="32" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="15" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB4F74-DF50-4B7D-8E77-024B5DB26560}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="70" style="32" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="70" style="3" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="3"/>
+    <col min="6" max="6" width="26.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="34.140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="F1" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="K1" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43"/>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="52"/>
+      <c r="G4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43"/>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43"/>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="44"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="52"/>
+      <c r="G19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="44"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="F25" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="52"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="52"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K3:K14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F15:F24"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="F25:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF693F29-DE64-41FF-83B3-18A76DAAA798}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="33"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="33"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="33"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="33"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="33"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="33"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FinalProjectGitHub.xlsx
+++ b/FinalProjectGitHub.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdullah\Desktop\CureMD Bootcamp Assignments\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4850\Desktop\FP_GH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4454E-15F5-4D5C-8459-452477FD21E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C9706-6BF2-4383-8773-A8AA87F5DCE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" firstSheet="1" activeTab="5" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{E3264601-2816-4E7F-AEDE-A6C0EEF12075}"/>
   </bookViews>
   <sheets>
     <sheet name="welcome" sheetId="1" r:id="rId1"/>
     <sheet name="flowcharts(4)" sheetId="2" r:id="rId2"/>
     <sheet name="TestGroups(4)" sheetId="3" r:id="rId3"/>
-    <sheet name="Test point" sheetId="7" r:id="rId4"/>
-    <sheet name="variables(4)" sheetId="4" r:id="rId5"/>
-    <sheet name="equivalence classes" sheetId="5" r:id="rId6"/>
-    <sheet name="BV" sheetId="6" r:id="rId7"/>
+    <sheet name="variables(4)" sheetId="4" r:id="rId4"/>
+    <sheet name="equivalence classes" sheetId="5" r:id="rId5"/>
+    <sheet name="BV" sheetId="6" r:id="rId6"/>
+    <sheet name="Test point" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="372">
   <si>
     <t>PULL REQUEST Feature</t>
   </si>
@@ -421,72 +412,9 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Valid Constraints</t>
-  </si>
-  <si>
-    <t>Invalid Constraints</t>
-  </si>
-  <si>
-    <t>- Filename length should not exceed 255 characters.</t>
-  </si>
-  <si>
-    <t>- Filename contains spaces or special characters other than hyphens, underscores, and dots.</t>
-  </si>
-  <si>
-    <t>- Filename can contain alphanumeric characters.</t>
-  </si>
-  <si>
-    <t>- Filename starts or ends with hyphens, underscores, or dots.</t>
-  </si>
-  <si>
-    <t>- Filename can contain hyphens and underscores.</t>
-  </si>
-  <si>
-    <t>- Filename is empty (null or an empty string).</t>
-  </si>
-  <si>
-    <t>- Filename can contain dots to indicate file extensions.</t>
-  </si>
-  <si>
-    <t>- Filename contains invalid characters or escape sequences.</t>
-  </si>
-  <si>
-    <t>- Filename can be in any supported file naming convention.</t>
-  </si>
-  <si>
-    <t>- Filename length exceeds the maximum allowed length (e.g., more than 255 characters).</t>
-  </si>
-  <si>
-    <t>- Filename can contain uppercase and lowercase characters.</t>
-  </si>
-  <si>
-    <t>- Filename contains leading or trailing whitespaces.</t>
-  </si>
-  <si>
-    <t>- Filename can contain numbers and special characters.</t>
-  </si>
-  <si>
-    <t>- Filename contains non-printable or control characters.</t>
-  </si>
-  <si>
-    <t>- Filename contains consecutive dots (e.g., "file..txt").</t>
-  </si>
-  <si>
-    <t>- Filename contains reserved keywords or prohibited patterns.</t>
-  </si>
-  <si>
-    <t>- Filename contains invalid file path separators (e.g., /, ).</t>
-  </si>
-  <si>
-    <t>- Filename is case-sensitive in the repository's OS.</t>
-  </si>
-  <si>
     <t>workflow file</t>
   </si>
   <si>
-    <t>- The file should be a valid YAML file format.</t>
-  </si>
-  <si>
     <t>- The file is empty or null.</t>
   </si>
   <si>
@@ -496,45 +424,21 @@
     <t>- The file references non-existing jobs or actions.</t>
   </si>
   <si>
-    <t>- The file should have a valid structure and indentation.</t>
-  </si>
-  <si>
     <t>- The file exceeds the maximum allowed file size.</t>
   </si>
   <si>
-    <t>- The file can contain comments and whitespace.</t>
-  </si>
-  <si>
     <t>- The file is in an unsupported file format (e.g., not YAML).</t>
   </si>
   <si>
-    <t>- The file should not contain prohibited configurations.</t>
-  </si>
-  <si>
     <t>- The file references private or sensitive information (e.g., secrets).</t>
   </si>
   <si>
-    <t>- The file should be placed in the correct directory.</t>
-  </si>
-  <si>
     <t>- The file contains insecure or unsafe configurations (e.g., eval).</t>
   </si>
   <si>
-    <t>- The file should use valid GitHub Actions syntax.</t>
-  </si>
-  <si>
     <t>- The file includes non-YAML constructs (e.g., JSON, shell commands).</t>
   </si>
   <si>
-    <t>the file should define jobs, actions, triggers, and other configurations using correct YAML syntax.</t>
-  </si>
-  <si>
-    <t>The file should specify valid virtual environments (e.g., "ubuntu-latest") for the jobs.</t>
-  </si>
-  <si>
-    <t>The file should use valid trigger events (e.g., "on: [push]") to initiate the workflow.</t>
-  </si>
-  <si>
     <t>The workflow should generate relevant and informative outputs, artifacts, test reports, and logs.</t>
   </si>
   <si>
@@ -571,57 +475,12 @@
     <t xml:space="preserve">Github Action Feature </t>
   </si>
   <si>
-    <t>The branch name can contain lowercase and uppercase letters (alphanumeric characters).</t>
-  </si>
-  <si>
-    <t>The branch name can include hyphens and underscores to separate words.</t>
-  </si>
-  <si>
-    <t>The branch name can have a descriptive format indicating the purpose or feature being worked on.</t>
-  </si>
-  <si>
-    <t>The branch name should be human-readable and meaningful to team members.</t>
-  </si>
-  <si>
-    <t>The branch name can be relatively short and concise while still conveying the intended purpose.</t>
-  </si>
-  <si>
     <t>The branch name contains special characters other than hyphens and underscores.</t>
   </si>
   <si>
-    <t>The branch name includes symbols, such as @, #, $, etc., which are not supported by Git.</t>
-  </si>
-  <si>
-    <t>The branch name includes non-printable or control characters.</t>
-  </si>
-  <si>
-    <t>The branch name is too long, exceeding the maximum allowed length for branch names.</t>
-  </si>
-  <si>
-    <t>The branch name is cryptic or not easily understandable to team members.</t>
-  </si>
-  <si>
-    <t>The branch name includes reserved words or keywords that may conflict with Git or the repository's settings.</t>
-  </si>
-  <si>
     <t>The branch name is identical to or conflicts with an existing branch name in the repository.</t>
   </si>
   <si>
-    <t>The branch name is formatted using invalid characters, such as slashes, colons, or semicolons.</t>
-  </si>
-  <si>
-    <t>The commit message should be written in English or a language commonly used in the project.</t>
-  </si>
-  <si>
-    <t>The commit message can include alphabets, numbers, and common special characters like periods, commas, hyphens, and underscores.</t>
-  </si>
-  <si>
-    <t>The commit message should be a non-empty string with at least one character.</t>
-  </si>
-  <si>
-    <t>The commit message can include a reference to associated issues or pull requests for better traceability.</t>
-  </si>
-  <si>
     <t>pull request feature</t>
   </si>
   <si>
@@ -640,18 +499,9 @@
     <t>Verify that the user can clone the forked repository to their local machine.</t>
   </si>
   <si>
-    <t>Verify that the user can create a new branch in the forked repository.</t>
-  </si>
-  <si>
-    <t>Verify that the user can make changes to the code in the new branch.</t>
-  </si>
-  <si>
     <t>Verify that the user can create a pull request from the new branch to the original repository.</t>
   </si>
   <si>
-    <t>Verify that the maintainers or reviewers can review the changes made in the pull request.</t>
-  </si>
-  <si>
     <t>Verify that the maintainers can approve the pull request and merge the changes into the main codebase.</t>
   </si>
   <si>
@@ -667,9 +517,6 @@
     <t>Verify that the user decides not to request permission for forking the repository and the process ends without any further actions related to forking or pull requests.</t>
   </si>
   <si>
-    <t xml:space="preserve">acceptance </t>
-  </si>
-  <si>
     <t>Verify that the user can successfully create a fork of the original repository on their GitHub account, enabling them to contribute to the project.</t>
   </si>
   <si>
@@ -688,28 +535,687 @@
     <t>Verify that the pull request is successfully merged into the main codebase after receiving approval from the maintainers, incorporating the user's contributions into the project.</t>
   </si>
   <si>
-    <t>GUI</t>
-  </si>
-  <si>
     <t>gui</t>
   </si>
   <si>
-    <t>Ensure the user can access the "Clone or Download" button and access the clone URL of the forked repository.</t>
-  </si>
-  <si>
-    <t>Verify the user's ability to create a new branch using the GitHub interface, providing a suitable name for the branch.</t>
-  </si>
-  <si>
-    <t>Confirm the changes made by the user are properly reflected in the "Changes" tab, with clear indications of added, modified, and deleted files.</t>
-  </si>
-  <si>
-    <t>Validate the user can enter a meaningful commit message and commit the changes with the "Commit changes" button.</t>
-  </si>
-  <si>
-    <t>Ensure the "Push" button is visible and clickable after the user commits changes, allowing them to push the new branch to the forked repository.</t>
-  </si>
-  <si>
-    <t>Verify the user can navigate to the "New Pull Request" button on the forked repository page.</t>
+    <t>issue tracking feature</t>
+  </si>
+  <si>
+    <t>Test issue creation with valid title and description, ensuring the issue is successfully submitted.</t>
+  </si>
+  <si>
+    <t>Verify that assignees and labels can be added to an issue and are displayed correctly.</t>
+  </si>
+  <si>
+    <t>Test issue assignment functionality, checking that assigned users receive notifications.</t>
+  </si>
+  <si>
+    <t>Verify the ability to update issue progress, add comments, and mark issues as resolved.</t>
+  </si>
+  <si>
+    <t>Test editing an existing issue, ensuring changes to title, description, assignees, or labels are saved.</t>
+  </si>
+  <si>
+    <t>Verify that only authorized users have access to confidential or restricted issues.</t>
+  </si>
+  <si>
+    <t>Verify that without issue creation permission, the user cannot create new issues.</t>
+  </si>
+  <si>
+    <t>Test if the user receives an appropriate error message or notification when attempting to create an issue without permission.</t>
+  </si>
+  <si>
+    <t>Ensure that the user has access to other GitHub functionalities despite not having issue creation permission.</t>
+  </si>
+  <si>
+    <t>Verify that the user can still browse and view existing issues even without the permission to create new ones.</t>
+  </si>
+  <si>
+    <t>Test issue creation with valid title, description, assignees, and labels.</t>
+  </si>
+  <si>
+    <t>Verify the successful creation of an issue and the display of assignees and labels.</t>
+  </si>
+  <si>
+    <t>Test the ability to review issue details and ensure all information is visible.</t>
+  </si>
+  <si>
+    <t>Verify the issue assignment functionality and the sending of notifications to assignees.</t>
+  </si>
+  <si>
+    <t>Test updating issue progress with comments and additional information.</t>
+  </si>
+  <si>
+    <t>Verify that marking an issue as "Resolved" triggers the appropriate status change and notifications.</t>
+  </si>
+  <si>
+    <t>Github Action feature</t>
+  </si>
+  <si>
+    <t>Test workflow creation for successful setup and configuration.</t>
+  </si>
+  <si>
+    <t>Verify that workflow triggers are properly defined and executed as expected.</t>
+  </si>
+  <si>
+    <t>Test job and execution configuration to ensure accurate and error-free setup.</t>
+  </si>
+  <si>
+    <t>Verify the setup of environment and dependencies for smooth workflow execution.</t>
+  </si>
+  <si>
+    <t>Test the workflow's execution to ensure jobs and dependencies run without errors.</t>
+  </si>
+  <si>
+    <t>Review the workflow output to confirm it aligns with the expected results.</t>
+  </si>
+  <si>
+    <t>Make changes to the workflow and rerun it to validate the changes' effectiveness.</t>
+  </si>
+  <si>
+    <t>Test handling of workflow triggers to ensure proper initiation.</t>
+  </si>
+  <si>
+    <t>Verify the execution of jobs and resolution of dependencies without errors.</t>
+  </si>
+  <si>
+    <t>Test the system's ability to handle errors gracefully during workflow execution.</t>
+  </si>
+  <si>
+    <t>Confirm the system's retries and resolution of errors based on defined policies.</t>
+  </si>
+  <si>
+    <t>Review workflow outputs and logs for identification of issues or anomalies.</t>
+  </si>
+  <si>
+    <t>Validate the successful merging of changes to workflow or job configurations.</t>
+  </si>
+  <si>
+    <t>Verify users can create new workflows using GitHub Actions.</t>
+  </si>
+  <si>
+    <t>Test different triggers to initiate GitHub Actions workflows.</t>
+  </si>
+  <si>
+    <t>Verify the successful execution of jobs and handling of dependencies.</t>
+  </si>
+  <si>
+    <t>Test the setup of the required environment and dependencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the outputs and logs generated during the GitHub Actions workflow execution.
+</t>
+  </si>
+  <si>
+    <t>Verify that the issue creation form displays the correct fonts, font sizes, and font styles for labels, input fields, and buttons.</t>
+  </si>
+  <si>
+    <t>Test the spelling and grammar in the form labels, placeholders, and tooltips.</t>
+  </si>
+  <si>
+    <t>Validate the background color and contrast of the form elements to ensure accessibility compliance.</t>
+  </si>
+  <si>
+    <t>Check the alignment of labels and input fields to ensure a consistent and visually appealing layout.</t>
+  </si>
+  <si>
+    <t>Verify the appearance of filter options with the correct fonts, background colors, and alignment.</t>
+  </si>
+  <si>
+    <t>Verify the appearance of user comments, ensuring correct fonts and alignment.</t>
+  </si>
+  <si>
+    <t>Test various dropdown menus (e.g., issue actions, assignees, labels) for consistency in fonts, background colors, and alignment.</t>
+  </si>
+  <si>
+    <t>Check alignment of labels and input fields for a consistent layout.</t>
+  </si>
+  <si>
+    <t>Test different triggers (e.g., manual, scheduled, event-based) and verify that they are displayed correctly with appropriate fonts and alignment.</t>
+  </si>
+  <si>
+    <t>Validate that dependencies between jobs are visually represented and accurately resolved.</t>
+  </si>
+  <si>
+    <t>erify that the environment and dependency setup sections display relevant information with correct fonts and alignment.</t>
+  </si>
+  <si>
+    <t>Verify the presentation of workflow outputs and logs, ensuring readable fonts and appropriate alignment.</t>
+  </si>
+  <si>
+    <t>Test the GUI's responsiveness on different mobile devices with varying screen sizes and orientations.</t>
+  </si>
+  <si>
+    <t>Test the GUI for compliance with accessibility standards, particularly color contrast for users with visual impairments.</t>
+  </si>
+  <si>
+    <t>Security Scanning feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that the security scanning is triggered appropriately when the workflow is set up.</t>
+  </si>
+  <si>
+    <t>Test the security scanning system's ability to analyze the codebase for security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Verify that the security scanning system performs dependency scanning to identify vulnerable libraries.</t>
+  </si>
+  <si>
+    <t>Test the presentation and accuracy of security alerts and findings generated during the security scanning process.</t>
+  </si>
+  <si>
+    <t>Verify that the security scanning system generates a comprehensive report of security findings.</t>
+  </si>
+  <si>
+    <t>Verify how the system handles neglected notifications for unresolved security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Verify that the system persists the unresolved security vulnerability alert until it is addressed or acknowledged.</t>
+  </si>
+  <si>
+    <t>Verify the  system escalates the notification or takes appropriate actions if the vulnerability remains unresolved beyond the defined threshold.</t>
+  </si>
+  <si>
+    <t>Verify that the security scanning workflow can be set up and configured for the repository.</t>
+  </si>
+  <si>
+    <t>Test the accuracy of security findings reported by the security scanning system.</t>
+  </si>
+  <si>
+    <t>Test the notification mechanism and remediation process for handling security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Verify the successful closure of security issues after they are resolved.
+Actions:</t>
+  </si>
+  <si>
+    <t>verify the color scheme for security findings effectively communicates the severity levels, highlighting critical issues distinctly.</t>
+  </si>
+  <si>
+    <t>Verify the consistency of font sizes and styles throughout the GUI interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify the color contrast of dropdown menus and buttons to ensure accessibility compliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non functional </t>
+  </si>
+  <si>
+    <t>Verify the performance of pull requests in terms of response time and handling large code changes.</t>
+  </si>
+  <si>
+    <t>Test the scalability of GitHub Actions in handling a large number of concurrent workflows and jobs.</t>
+  </si>
+  <si>
+    <t>: Verify the security measures implemented in the issue tracking system to protect sensitive data and prevent unauthorized access.</t>
+  </si>
+  <si>
+    <t>Test the reliability and availability of the security scanning feature during high workload scenarios.</t>
+  </si>
+  <si>
+    <t>DataBase testing</t>
+  </si>
+  <si>
+    <t>Verify the consistency of data stored in the database related to pull requests.</t>
+  </si>
+  <si>
+    <t>Test the integrity of data stored in the database related to GitHub Actions workflows and jobs.</t>
+  </si>
+  <si>
+    <t>Verify the proper archiving and retrieval of closed or resolved issues from the database.</t>
+  </si>
+  <si>
+    <t>Test the data purging mechanism for security scanning results to prevent storage of outdated data.</t>
+  </si>
+  <si>
+    <t>Regression testing</t>
+  </si>
+  <si>
+    <t>Verify that new code changes or feature updates do not introduce regressions in the pull request workflow.</t>
+  </si>
+  <si>
+    <t>Test for regressions in GitHub Actions due to updates or changes in the Actions workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that bug fixes or feature updates in the issue tracking system do not introduce new issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test for regressions in the security scanning feature after updates to scanning algorithms or configurations.</t>
+  </si>
+  <si>
+    <t>Verify that the application's GUI elements, such as buttons, labels, and layouts, adapt and display correctly on different screen sizes.</t>
+  </si>
+  <si>
+    <t>Test the functionality and placement of buttons throughout the application.</t>
+  </si>
+  <si>
+    <t>Verify the color consistency and contrast across the application's GUI elements.</t>
+  </si>
+  <si>
+    <t>verify the Data presented in a clear and organized format, ensuring readability and understanding.</t>
+  </si>
+  <si>
+    <t>Test the GUI's presentation of error messages and validation feedback.</t>
+  </si>
+  <si>
+    <t>Verify the consistency of fonts and their readability across the application.</t>
+  </si>
+  <si>
+    <t>All four features have been done in one file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alphanumeric characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hyphens and underscores.</t>
+  </si>
+  <si>
+    <t>dots to indicate file extensions.</t>
+  </si>
+  <si>
+    <t>Both uppercase and lowercase characters.</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>special characters other than hyphen nd underscore</t>
+  </si>
+  <si>
+    <t>starts with hyphen, underscore or dot</t>
+  </si>
+  <si>
+    <t>Filename is empty (null or an empty string).</t>
+  </si>
+  <si>
+    <t>length exceeds the maximum allowed length (e.g., more than 255 characters).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> contains invalid characters or escape sequences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consecutive dots (e.g., "file..txt").</t>
+  </si>
+  <si>
+    <t>non-printable or control characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading or trailing whitespaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid </t>
+  </si>
+  <si>
+    <t>alphabets, numbers, and common special characters like periods, commas, hyphens, and underscores.</t>
+  </si>
+  <si>
+    <t>valid trigger events (e.g., "on: [push]") to initiate the workflow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> valid GitHub Actions syntax.</t>
+  </si>
+  <si>
+    <t>comments and whitespace.</t>
+  </si>
+  <si>
+    <t>valid structure and indentation.</t>
+  </si>
+  <si>
+    <t>specify valid virtual environments (e.g., "ubuntu-latest") for the jobs.</t>
+  </si>
+  <si>
+    <t>define jobs, actions, triggers, and other configurations using correct YAML syntax.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lowercase and uppercase letters (alphanumeric characters).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hyphens and underscores to separate words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> descriptive format indicating the purpose or feature being worked on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> human-readable and meaningful to team members.</t>
+  </si>
+  <si>
+    <t>short and concise while still conveying the intended purpose.</t>
+  </si>
+  <si>
+    <t>In English or a language commonly used in the project.</t>
+  </si>
+  <si>
+    <t>non-empty string with at least one character.</t>
+  </si>
+  <si>
+    <t>symbols, such as @, #, $, etc., which are not supported by Git.</t>
+  </si>
+  <si>
+    <t>name is too long, exceeding the maximum allowed length for branch names.</t>
+  </si>
+  <si>
+    <t>The file should be a valid YAML file format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pull request feature </t>
+  </si>
+  <si>
+    <t>invalid(min -1)</t>
+  </si>
+  <si>
+    <t>valid(min, +min, -max, max)</t>
+  </si>
+  <si>
+    <t>invalid(max+1)</t>
+  </si>
+  <si>
+    <t>No URL provided</t>
+  </si>
+  <si>
+    <t>Valid URL</t>
+  </si>
+  <si>
+    <t>URL longer than allowed</t>
+  </si>
+  <si>
+    <t>No branch name provided</t>
+  </si>
+  <si>
+    <t>Valid branch name</t>
+  </si>
+  <si>
+    <t>Branch name longer than allowed</t>
+  </si>
+  <si>
+    <t>Empty commit message</t>
+  </si>
+  <si>
+    <t>Valid commit message</t>
+  </si>
+  <si>
+    <t>Commit message longer than allowed</t>
+  </si>
+  <si>
+    <t>Pull Request Title</t>
+  </si>
+  <si>
+    <t>Empty title</t>
+  </si>
+  <si>
+    <t>Valid pull request title</t>
+  </si>
+  <si>
+    <t>Title longer than allowed</t>
+  </si>
+  <si>
+    <t>Pull Request Discussion</t>
+  </si>
+  <si>
+    <t>Empty discussion</t>
+  </si>
+  <si>
+    <t>Valid discussion</t>
+  </si>
+  <si>
+    <t>Discussion longer than allowed</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>https://github.com/example/repo</t>
+  </si>
+  <si>
+    <t>https://github.com/example/repo/extra-long-url</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>branch-name-with-more-than-allowed-characters</t>
+  </si>
+  <si>
+    <t>"Fix issue #123"</t>
+  </si>
+  <si>
+    <t>"This is a very long commit message exceeding the allowed length."</t>
+  </si>
+  <si>
+    <t>"Add new feature"</t>
+  </si>
+  <si>
+    <t>"This is a pull request title that is way too long and beyond the limit."</t>
+  </si>
+  <si>
+    <t>No discussion provided</t>
+  </si>
+  <si>
+    <t>"Discussion text exceeding the character limit set for pull requests."</t>
+  </si>
+  <si>
+    <t>"Great work! "</t>
+  </si>
+  <si>
+    <t>GitHub Action feature</t>
+  </si>
+  <si>
+    <t>Workflow File Name</t>
+  </si>
+  <si>
+    <t>No file name</t>
+  </si>
+  <si>
+    <t>main.yml</t>
+  </si>
+  <si>
+    <t>workflow-name-longer-than-maximum-limit</t>
+  </si>
+  <si>
+    <t>Workflow File</t>
+  </si>
+  <si>
+    <t>Empty file</t>
+  </si>
+  <si>
+    <t>Valid workflow YAML content</t>
+  </si>
+  <si>
+    <t>Large workflow file exceeding maximum allowed size</t>
+  </si>
+  <si>
+    <t>Workflow Output and Log</t>
+  </si>
+  <si>
+    <t>No output or log</t>
+  </si>
+  <si>
+    <t>Valid output and log entries</t>
+  </si>
+  <si>
+    <t>Output and log exceeding maximum allowed size</t>
+  </si>
+  <si>
+    <t>NoFileName</t>
+  </si>
+  <si>
+    <t>workflow-file-name-exceeding-maximum-limit</t>
+  </si>
+  <si>
+    <t>(Empty file content)</t>
+  </si>
+  <si>
+    <t>(Valid YAML content for workflow)</t>
+  </si>
+  <si>
+    <t>(Large workflow file content exceeding maximum allowed size)</t>
+  </si>
+  <si>
+    <t>(No output or log entries)</t>
+  </si>
+  <si>
+    <t>(Valid output and log entries)</t>
+  </si>
+  <si>
+    <t>(Output and log entries exceeding maximum allowed size)</t>
+  </si>
+  <si>
+    <t>Issue Title</t>
+  </si>
+  <si>
+    <t>No title provided</t>
+  </si>
+  <si>
+    <t>Short title (e.g., "Bug Fix")</t>
+  </si>
+  <si>
+    <t>Issue title longer than maximum allowed limit (e.g., 256 characters)</t>
+  </si>
+  <si>
+    <t>Issue Description</t>
+  </si>
+  <si>
+    <t>No description provided</t>
+  </si>
+  <si>
+    <t>Detailed description of the issue</t>
+  </si>
+  <si>
+    <t>Description longer than maximum allowed limit (e.g., 65536 characters)</t>
+  </si>
+  <si>
+    <t>No assignees specified</t>
+  </si>
+  <si>
+    <t>Assign one or more valid users</t>
+  </si>
+  <si>
+    <t>Assign more users than the maximum allowed (e.g., beyond project limit)</t>
+  </si>
+  <si>
+    <t>No labels specified</t>
+  </si>
+  <si>
+    <t>Attach relevant label(s) to the issue</t>
+  </si>
+  <si>
+    <t>Attach more labels than the maximum allowed (e.g., beyond project limit)</t>
+  </si>
+  <si>
+    <t>No comments or discussions</t>
+  </si>
+  <si>
+    <t>Add comments and discussions related to the issue</t>
+  </si>
+  <si>
+    <t>Excessive comments and discussions surpassing the maximum limit</t>
+  </si>
+  <si>
+    <t>NoTitle</t>
+  </si>
+  <si>
+    <t>Bug Fix</t>
+  </si>
+  <si>
+    <t>Issue title longer than 256 characters</t>
+  </si>
+  <si>
+    <t>No description</t>
+  </si>
+  <si>
+    <t>Description longer than 65536 characters</t>
+  </si>
+  <si>
+    <t>No assignees</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>Assigning more users than allowed (e.g., User1, User2, User3)</t>
+  </si>
+  <si>
+    <t>No labels</t>
+  </si>
+  <si>
+    <t>Bug, Enhancement</t>
+  </si>
+  <si>
+    <t>Attaching more labels than allowed (e.g., Bug, Enhancement, Feature, Bug)</t>
+  </si>
+  <si>
+    <t>No comments</t>
+  </si>
+  <si>
+    <t>Comment1, Comment2, Discussion1, Discussion2</t>
+  </si>
+  <si>
+    <t>Excessive comments and discussions surpassing the limit</t>
+  </si>
+  <si>
+    <t>Security scanning Feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security Scanning Feature </t>
+  </si>
+  <si>
+    <t>No notification</t>
+  </si>
+  <si>
+    <t>Single notification</t>
+  </si>
+  <si>
+    <t>Excessive notifications</t>
+  </si>
+  <si>
+    <t>Pull Request</t>
+  </si>
+  <si>
+    <t>No pull request</t>
+  </si>
+  <si>
+    <t>Valid pull request</t>
+  </si>
+  <si>
+    <t>More pull requests than allowed</t>
+  </si>
+  <si>
+    <t>Issue Comments</t>
+  </si>
+  <si>
+    <t>Several valid comments</t>
+  </si>
+  <si>
+    <t>Excessive comments</t>
+  </si>
+  <si>
+    <t>Issue Status</t>
+  </si>
+  <si>
+    <t>No status</t>
+  </si>
+  <si>
+    <t>Open, Closed, In Progress, etc.</t>
+  </si>
+  <si>
+    <t>Invalid status</t>
+  </si>
+  <si>
+    <t>New security alert</t>
+  </si>
+  <si>
+    <t>Pull Request #1234</t>
+  </si>
+  <si>
+    <t>"This is a security vulnerability."</t>
+  </si>
+  <si>
+    <t>Open, Closed, In Progress</t>
+  </si>
+  <si>
+    <t>Equivalence class could not be completed due to time constraint</t>
   </si>
 </sst>
 </file>
@@ -777,27 +1283,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -805,13 +1299,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF374151"/>
-      <name val="Calibri Light"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,8 +1356,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1149,11 +1693,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1161,39 +1876,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1227,45 +1912,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1278,73 +1924,371 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57A6CDE-CA5B-4C6B-A7C3-2F58D7931899}">
-  <dimension ref="C1:Q8"/>
+  <dimension ref="C1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,53 +2819,69 @@
     <col min="3" max="3" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="3:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-    </row>
-    <row r="3" spans="3:17" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="Q8" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="3:17" ht="195" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:M3"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:M4"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1932,95 +2892,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A61F9D-8432-47F8-AB57-7E54DF4027C3}">
   <dimension ref="B1:AO24"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW35" sqref="AW35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-      <c r="M1" s="25" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="M1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27"/>
-      <c r="X1" s="25" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="102"/>
+      <c r="X1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="27"/>
-      <c r="AH1" s="31" t="s">
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="108"/>
+      <c r="AH1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
+      <c r="AL1" s="112"/>
+      <c r="AM1" s="112"/>
+      <c r="AN1" s="112"/>
+      <c r="AO1" s="112"/>
     </row>
     <row r="2" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="30"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="105"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="111"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
@@ -2044,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54CA26C-9AAF-459C-BEAC-886BA283842C}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,135 +3015,135 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="113"/>
     </row>
     <row r="3" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="114"/>
     </row>
     <row r="12" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="116"/>
     </row>
     <row r="18" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="118"/>
     </row>
     <row r="24" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2200,197 +3160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AD83B3-B512-4161-91DF-38FEFA7FAA3E}">
-  <dimension ref="B2:E29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="115.85546875" customWidth="1"/>
-    <col min="4" max="4" width="99.7109375" customWidth="1"/>
-    <col min="5" max="5" width="86" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="64"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="60"/>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="61" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="59"/>
-    </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="59"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="47" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C29" s="47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B16:C16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7956EF65-C3A0-4078-BD91-08F4B2866B00}">
   <dimension ref="B1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2407,261 +3181,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15">
+      <c r="B25" s="5">
         <v>4</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+      <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="5">
         <v>2</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="5">
         <v>3</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="B35" s="5">
         <v>4</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2677,660 +3451,1967 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB4F74-DF50-4B7D-8E77-024B5DB26560}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="70" style="3" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="26.5703125" style="5" customWidth="1"/>
-    <col min="7" max="8" width="34.140625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="13" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.7109375" style="21" customWidth="1"/>
+    <col min="2" max="3" width="70.7109375" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="26.5703125" style="21" customWidth="1"/>
+    <col min="7" max="8" width="70.7109375" style="20" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="13" style="20" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="F1" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="K1" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="151" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="F2" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B3" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C3" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F3" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="149" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="149" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="128"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="128"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="128"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G16" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H3" s="4" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="4" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H4" s="4" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="23"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="4" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="4" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="F24" s="40"/>
+      <c r="H24" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="F25" s="41"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="F26" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="4" t="s">
+      <c r="H26" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H27" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="4" t="s">
+      <c r="H28" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="H29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="F25" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="48" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B35" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C35" s="125" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="36" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B36" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C36" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="37" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B37" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C37" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="38" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B38" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C38" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="39" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C39" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="40" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K3:K14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F15:F24"/>
-    <mergeCell ref="F3:F14"/>
-    <mergeCell ref="F25:F29"/>
+  <mergeCells count="10">
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF693F29-DE64-41FF-83B3-18A76DAAA798}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>78</v>
+      <c r="B2" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="142"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="134" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="136"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="142"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="145" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="136"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="139" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="132" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="132" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="140" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" s="132" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="140" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="132" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" s="132" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" s="140" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="132" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="132" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="140" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="139" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="132" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="132" t="s">
+        <v>335</v>
+      </c>
+      <c r="D35" s="140" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="142"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="145" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="145" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="134" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="136"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="131" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="138" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D51" s="58" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="139"/>
+      <c r="B52" s="132"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="140"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="142"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="133" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="133" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="B58" s="145" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A36:D36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{008814E7-6916-46DC-A68D-14EE3585C28E}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{D37BC7FD-F2A7-4B47-8211-64500C9856B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AD83B3-B512-4161-91DF-38FEFA7FAA3E}">
+  <dimension ref="B1:L41"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="102.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="101.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="101.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="101.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="E2" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="H2" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="K2" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="E4" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="H4" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="K4" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="73"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="63"/>
+      <c r="C6" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="63"/>
+      <c r="C7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="71"/>
+      <c r="C8" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="63"/>
+      <c r="C10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="71"/>
+      <c r="C11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="E12" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="38"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="51"/>
+      <c r="C13" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="51"/>
+      <c r="C14" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="L15" s="36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="49"/>
+      <c r="L16" s="36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="86"/>
+      <c r="L17" s="36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="51"/>
+      <c r="C18" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="85"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="48"/>
+      <c r="I20" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="86"/>
+      <c r="L21" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="53"/>
+      <c r="C22" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="60"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="53"/>
+      <c r="C23" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="75"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="79" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="53"/>
+      <c r="C24" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="L24" s="79"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="76"/>
+      <c r="C25" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="86"/>
+      <c r="I25" s="23"/>
+      <c r="K25" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="60"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="88"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="61"/>
+      <c r="C27" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="47"/>
+      <c r="F27" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79"/>
+    </row>
+    <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="61"/>
+      <c r="C28" s="58"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="92"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="61"/>
+      <c r="C30" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="47"/>
+      <c r="F30" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="61"/>
+      <c r="C31" s="58"/>
+      <c r="E31" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="31"/>
+      <c r="C33" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="81"/>
+      <c r="H34" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="78"/>
+      <c r="F35" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="78"/>
+      <c r="I35" s="90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="81"/>
+      <c r="H37" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="92"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="82"/>
+      <c r="F38" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="78"/>
+      <c r="I38" s="79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="78"/>
+      <c r="I39" s="79"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="60"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="82"/>
+      <c r="I41" s="83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>